--- a/Results.xlsx
+++ b/Results.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Subasree\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{72EE222C-BD95-4B84-BF3F-7E91BD3D0803}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DAA95A6-958D-4322-8A86-C4C22CC0DA3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="10" activeTab="10" xr2:uid="{A8D6CF37-7846-4623-8553-24406D96190D}"/>
   </bookViews>
@@ -24,19 +24,20 @@
     <sheet name="auxotrophy" sheetId="18" r:id="rId9"/>
     <sheet name="Model-validation" sheetId="20" r:id="rId10"/>
     <sheet name="Pathways" sheetId="22" r:id="rId11"/>
-    <sheet name="BOF" sheetId="4" r:id="rId12"/>
-    <sheet name="Sheet4" sheetId="24" r:id="rId13"/>
-    <sheet name="BOF-cmprsn of gapseq &amp; litdat" sheetId="7" r:id="rId14"/>
-    <sheet name="virulence factors rxns" sheetId="9" r:id="rId15"/>
-    <sheet name="carveme vs built BOF" sheetId="8" r:id="rId16"/>
-    <sheet name="model validation dataset" sheetId="12" r:id="rId17"/>
-    <sheet name="BIGG-SEED mapping" sheetId="10" r:id="rId18"/>
+    <sheet name="Gene-essentialiaty" sheetId="25" r:id="rId12"/>
+    <sheet name="BOF" sheetId="4" r:id="rId13"/>
+    <sheet name="Sheet4" sheetId="24" r:id="rId14"/>
+    <sheet name="BOF-cmprsn of gapseq &amp; litdat" sheetId="7" r:id="rId15"/>
+    <sheet name="virulence factors rxns" sheetId="9" r:id="rId16"/>
+    <sheet name="carveme vs built BOF" sheetId="8" r:id="rId17"/>
+    <sheet name="model validation dataset" sheetId="12" r:id="rId18"/>
+    <sheet name="BIGG-SEED mapping" sheetId="10" r:id="rId19"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId19"/>
+    <externalReference r:id="rId20"/>
   </externalReferences>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="17" hidden="1">'BIGG-SEED mapping'!$F$1:$F$1628</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="18" hidden="1">'BIGG-SEED mapping'!$F$1:$F$1628</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -56,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7784" uniqueCount="3328">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7986" uniqueCount="3509">
   <si>
     <t>5s</t>
   </si>
@@ -11694,6 +11695,549 @@
   <si>
     <t>Mercury-Detoxification (Mercury Detoxification</t>
   </si>
+  <si>
+    <t>'1,4-dihydroxy-2-naphthoate octaprenyltransferase'</t>
+  </si>
+  <si>
+    <t>'1,4-dihydroxy-2-naphthoyl-CoA synthase'</t>
+  </si>
+  <si>
+    <t>'1-acylglycerol-3-phosphate O-acyltransferase'</t>
+  </si>
+  <si>
+    <t>'1-deoxy-D-xylulose-5-phosphate reductoisomerase'</t>
+  </si>
+  <si>
+    <t>'1-deoxy-D-xylulose-5-phosphate synthase'</t>
+  </si>
+  <si>
+    <t>'2-C-methyl-D-erythritol 2,4-cyclodiphosphate synthase'</t>
+  </si>
+  <si>
+    <t>'2-C-methyl-D-erythritol 4-phosphate cytidylyltransferase'</t>
+  </si>
+  <si>
+    <t>'3-dehydroquinate synthase'</t>
+  </si>
+  <si>
+    <t>'3-deoxy-7-phosphoheptulonate synthase AroG'</t>
+  </si>
+  <si>
+    <t>'3-deoxy-8-phosphooctulonate synthase'</t>
+  </si>
+  <si>
+    <t>'3-deoxy-manno-octulosonate cytidylyltransferase'</t>
+  </si>
+  <si>
+    <t>'3-phosphoshikimate 1-carboxyvinyltransferase'</t>
+  </si>
+  <si>
+    <t>'4-(cytidine 5''-diphospho)-2-C-methyl-D-erythritol kinase'</t>
+  </si>
+  <si>
+    <t>'4-hydroxy-3-methylbut-2-enyl diphosphate reductase'</t>
+  </si>
+  <si>
+    <t>'5''-methylthioadenosine/adenosylhomocysteine nucleosidase'</t>
+  </si>
+  <si>
+    <t>'ADP-glyceromanno-heptose 6-epimerase'</t>
+  </si>
+  <si>
+    <t>'CDP-diacylglycerol--glycerol-3-phosphate 3-phosphatidyltransferase'</t>
+  </si>
+  <si>
+    <t>'CDP-diacylglycerol--serine O-phosphatidyltransferase'</t>
+  </si>
+  <si>
+    <t>'D-glycero-beta-D-manno-heptose 1,7-bisphosphate 7-phosphatase'</t>
+  </si>
+  <si>
+    <t>'D-sedoheptulose 7-phosphate isomerase'</t>
+  </si>
+  <si>
+    <t>'HAD family hydrolase'</t>
+  </si>
+  <si>
+    <t>'KpsF/GutQ family sugar isomerase'</t>
+  </si>
+  <si>
+    <t>'SDR family oxidoreductase'</t>
+  </si>
+  <si>
+    <t>'UDP-2,3-diacylglucosamine diphosphatase'</t>
+  </si>
+  <si>
+    <t>'UDP-3-O-acyl-N-acetylglucosamine deacetylase'</t>
+  </si>
+  <si>
+    <t>'acyl-ACP--UDP-N-acetylglucosamine O-acyltransferase'</t>
+  </si>
+  <si>
+    <t>'adenylate kinase'</t>
+  </si>
+  <si>
+    <t>'aspartate--ammonia ligase'</t>
+  </si>
+  <si>
+    <t>'bifunctional D-glycero-beta-D-manno-heptose-7-phosphate kinase/D-glycero-beta-D-manno-heptose 1-phosphate adenylyltransferase HldE'</t>
+  </si>
+  <si>
+    <t>'bifunctional UDP-N-acetylglucosamine diphosphorylase/glucosamine-1-phosphate N-acetyltransferase GlmU'</t>
+  </si>
+  <si>
+    <t>'bifunctional riboflavin kinase/FAD synthetase'</t>
+  </si>
+  <si>
+    <t>'dTDP-glucose 4,6-dehydratase'</t>
+  </si>
+  <si>
+    <t>'flavodoxin-dependent (E)-4-hydroxy-3-methylbut-2-enyl-diphosphate synthase'</t>
+  </si>
+  <si>
+    <t>'glutamine--fructose-6-phosphate transaminase (isomerizing)'</t>
+  </si>
+  <si>
+    <t>'guanylate kinase'</t>
+  </si>
+  <si>
+    <t>'lipid-A-disaccharide synthase'</t>
+  </si>
+  <si>
+    <t>'methionine adenosyltransferase'</t>
+  </si>
+  <si>
+    <t>'methylenetetrahydrofolate reductase'</t>
+  </si>
+  <si>
+    <t>'nucleoside-diphosphate kinase'</t>
+  </si>
+  <si>
+    <t>'o-succinylbenzoate synthase'</t>
+  </si>
+  <si>
+    <t>'o-succinylbenzoate--CoA ligase'</t>
+  </si>
+  <si>
+    <t>'octaprenyl diphosphate synthase'</t>
+  </si>
+  <si>
+    <t>'pantetheine-phosphate adenylyltransferase'</t>
+  </si>
+  <si>
+    <t>'phosphatidate cytidylyltransferase'</t>
+  </si>
+  <si>
+    <t>'phosphatidylglycerophosphatase A'</t>
+  </si>
+  <si>
+    <t>'phospho-sugar mutase'</t>
+  </si>
+  <si>
+    <t>'pyridoxal kinase'</t>
+  </si>
+  <si>
+    <t>'tetraacyldisaccharide 4''-kinase'</t>
+  </si>
+  <si>
+    <t>'thiamine-phosphate kinase'</t>
+  </si>
+  <si>
+    <t>'thymidylate synthase'</t>
+  </si>
+  <si>
+    <t>'type I pantothenate kinase'</t>
+  </si>
+  <si>
+    <t>'type II 3-dehydroquinate dehydratase'</t>
+  </si>
+  <si>
+    <t>genes</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>menA</t>
+  </si>
+  <si>
+    <t>pathway</t>
+  </si>
+  <si>
+    <t>drug</t>
+  </si>
+  <si>
+    <t>vitamin K2 synthesis, menaquinone synthesis, Ubiquinone and other terpenoid-quinone biosynthesis</t>
+  </si>
+  <si>
+    <t>menB</t>
+  </si>
+  <si>
+    <t>napthoate synthesis</t>
+  </si>
+  <si>
+    <t>biosynthesis of glycerophospholipids (GPL) and triacylglycerol (TAG)</t>
+  </si>
+  <si>
+    <t>IspC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">catalyzes the first committed step in the mevalonate-independent isopentenyl diphosphate biosynthetic pathway and is a potential drug target in some pathogenic bacteria. </t>
+  </si>
+  <si>
+    <t>fosmidomycin</t>
+  </si>
+  <si>
+    <t>reference</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pmc/articles/PMC1316992/</t>
+  </si>
+  <si>
+    <t>LpxB</t>
+  </si>
+  <si>
+    <t>Lipopolysaccharide biosynthesis</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>Lipopolysaccharide biosynthesis, Biosynthesis of nucleotide sugars</t>
+  </si>
+  <si>
+    <t>adenosylcobinamide-GDP salvage from assorted adenosylcobamides</t>
+  </si>
+  <si>
+    <t>lpcA</t>
+  </si>
+  <si>
+    <t>gmhB</t>
+  </si>
+  <si>
+    <t>Glycine, serine and threonine metabolism, Glycerophospholipid metabolism</t>
+  </si>
+  <si>
+    <t>Phospholipid metabolism; phosphatidylglycerol biosynthesis; phosphatidylglycerol from CDP-diacylglycerol</t>
+  </si>
+  <si>
+    <t>Metabolic intermediate biosynthesis; chorismate biosynthesis</t>
+  </si>
+  <si>
+    <t>involved in catalysing the first step of conversion of pantothenate to coenzyme A (CoA)</t>
+  </si>
+  <si>
+    <t>Antifolate resistance,Pyrimidine metabolism</t>
+  </si>
+  <si>
+    <t>Thiamine metabolism</t>
+  </si>
+  <si>
+    <t>LpxK</t>
+  </si>
+  <si>
+    <t>benzodiazepine</t>
+  </si>
+  <si>
+    <t>Vitamin B6 metabolism</t>
+  </si>
+  <si>
+    <t>Fructose and mannose metabolism, Amino sugar and nucleotide sugar metabolism, 	O-Antigen nucleotide sugar biosynthesis</t>
+  </si>
+  <si>
+    <t>gep4</t>
+  </si>
+  <si>
+    <t>Phosphatidylinositol signaling system, Glycerophospholipid metabolism</t>
+  </si>
+  <si>
+    <t>Pantothenate and CoA biosynthesis</t>
+  </si>
+  <si>
+    <t>Terpenoid backbone biosynthesis</t>
+  </si>
+  <si>
+    <t>Quinol/quinone metabolism; menaquinone biosynthesis</t>
+  </si>
+  <si>
+    <t>menE</t>
+  </si>
+  <si>
+    <t>menC</t>
+  </si>
+  <si>
+    <t>Ubiquinone and other terpenoid-quinone biosynthesis, Quinol/quinone metabolism; menaquinone biosynthesis</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/28942838/</t>
+  </si>
+  <si>
+    <t>ndk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DNA cleavage/repair, and gene regulation, modulating virulence-associated phenotypes including quorum sensing regulation, type III secretion system activation, and virulence factor production. </t>
+  </si>
+  <si>
+    <t>Carbon fixation pathways in prokaryotes, Microbial metabolism in diverse environments, Carbon metabolism</t>
+  </si>
+  <si>
+    <t>Cysteine and methionine metabolism, Biosynthesis of amino acids</t>
+  </si>
+  <si>
+    <t>Alanine, aspartate and glutamate metabolism, Amino sugar and nucleotide sugar metabolism</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Purine metabolism, Nucleotide metabolism, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">	Terpenoid backbone biosynthesis</t>
+  </si>
+  <si>
+    <t>ispG</t>
+  </si>
+  <si>
+    <t>Bacterial outer membrane biogenesis; LPS O-antigen biosynthesis</t>
+  </si>
+  <si>
+    <t>rmlB</t>
+  </si>
+  <si>
+    <t>Cofactor biosynthesis; FAD biosynthesis, FMN biosynthesis</t>
+  </si>
+  <si>
+    <t>UDP-GlcNAc biosynthesis</t>
+  </si>
+  <si>
+    <t>Nucleotide-sugar biosynthesis; ADP-L-glycero-beta-D-manno-heptose biosynthesis, 	Lipopolysaccharide biosynthesis</t>
+  </si>
+  <si>
+    <t>asnA</t>
+  </si>
+  <si>
+    <t>Alanine, aspartate and glutamate metabolism, Cyanoamino acid metabolism, Biosynthesis of amino acids</t>
+  </si>
+  <si>
+    <t>adk</t>
+  </si>
+  <si>
+    <t>Purine metabolism, Thiamine metabolism, Nucleotide metabolism, Biosynthesis of cofactors</t>
+  </si>
+  <si>
+    <t>Cationic antimicrobial peptide (CAMP) resistance, Lipopolysaccharide biosynthesis</t>
+  </si>
+  <si>
+    <t>Glycolipid biosynthesis; lipid IV(A) biosynthesis</t>
+  </si>
+  <si>
+    <t>LpxC</t>
+  </si>
+  <si>
+    <t>LpxH</t>
+  </si>
+  <si>
+    <t>Thiamine metabolism, Terpenoid backbone biosynthesis, Biosynthesis of secondary metabolites</t>
+  </si>
+  <si>
+    <t>ispF</t>
+  </si>
+  <si>
+    <t>ispD</t>
+  </si>
+  <si>
+    <t>aroB</t>
+  </si>
+  <si>
+    <t>Phenylalanine, tyrosine and tryptophan biosynthesis, Biosynthesis of secondary metabolites, Biosynthesis of amino acids</t>
+  </si>
+  <si>
+    <t>aroG</t>
+  </si>
+  <si>
+    <t>Quorum sensing</t>
+  </si>
+  <si>
+    <t>Bacterial outer membrane biogenesis; lipopolysaccharide biosynthesis</t>
+  </si>
+  <si>
+    <t>Nucleotide-sugar biosynthesis</t>
+  </si>
+  <si>
+    <t>Isoprenoid biosynthesis; isopentenyl diphosphate biosynthesis via DXP pathway</t>
+  </si>
+  <si>
+    <t>Amino-acid biosynthesis; L-methionine biosynthesis via salvage pathway</t>
+  </si>
+  <si>
+    <t>Bacterial outer membrane biogenesis; LPS core biosynthesis</t>
+  </si>
+  <si>
+    <t>unique genes</t>
+  </si>
+  <si>
+    <t>'bifunctional 3-hydroxydecanoyl-ACP dehydratase/trans-2-decenoyl-ACP isomerase'</t>
+  </si>
+  <si>
+    <t>'bifunctional phosphopantothenoylcysteine decarboxylase/phosphopantothenate--cysteine ligase CoaBC'</t>
+  </si>
+  <si>
+    <t>'glycerol-3-phosphate 1-O-acyltransferase PlsY'</t>
+  </si>
+  <si>
+    <t>'long-chain fatty acid--CoA ligase'</t>
+  </si>
+  <si>
+    <t>'long-chain-fatty-acid--CoA ligase FadD'</t>
+  </si>
+  <si>
+    <t>'type I glutamate--ammonia ligase'</t>
+  </si>
+  <si>
+    <t>'3-deoxy-D-manno-octulosonic acid transferase'</t>
+  </si>
+  <si>
+    <t>'di-trans,poly-cis-decaprenylcistransferase'</t>
+  </si>
+  <si>
+    <t>'phosphatidylserine decarboxylase'</t>
+  </si>
+  <si>
+    <t>'sodium/panthothenate symporter'</t>
+  </si>
+  <si>
+    <t>'uracil permease'</t>
+  </si>
+  <si>
+    <t>'DNA gyrase inhibitor YacG'</t>
+  </si>
+  <si>
+    <t>'translation elongation factor Ts'</t>
+  </si>
+  <si>
+    <t>'amino acid aminotransferase'</t>
+  </si>
+  <si>
+    <t>'hypothetical protein'</t>
+  </si>
+  <si>
+    <t>'prephenate dehydratase'</t>
+  </si>
+  <si>
+    <t>'YceK/YidQ family lipoprotein'</t>
+  </si>
+  <si>
+    <t>'bifunctional glutamate--cysteine ligase GshA/glutathione synthetase GshB'</t>
+  </si>
+  <si>
+    <t>Lipid metabolism; fatty acid biosynthesis</t>
+  </si>
+  <si>
+    <t>fabA</t>
+  </si>
+  <si>
+    <t>dfp</t>
+  </si>
+  <si>
+    <t>biosynthesis of coenzyme A, affect both DNA and pantothenate metabolism</t>
+  </si>
+  <si>
+    <t>Glycerolipid metabolism, Glycerophospholipid metabolism</t>
+  </si>
+  <si>
+    <t>Fatty acid biosynthesis, Adipocytokine signaling pathway, PPAR signaling pathway</t>
+  </si>
+  <si>
+    <t>Quorum sensing, Fatty acid biosynthesis, Adipocytokine signaling pathway, PPAR signaling pathway</t>
+  </si>
+  <si>
+    <t>fadD</t>
+  </si>
+  <si>
+    <t>plsY</t>
+  </si>
+  <si>
+    <t>fadD15</t>
+  </si>
+  <si>
+    <t>Arginine biosynthesis, 	Alanine, aspartate and glutamate metabolism, Glyoxylate and dicarboxylate metabolism, Nitrogen metabolism, Microbial metabolism in diverse environments, Two-component system</t>
+  </si>
+  <si>
+    <t>glnA</t>
+  </si>
+  <si>
+    <t>kdtA</t>
+  </si>
+  <si>
+    <t>Peptidoglycan biosynthesis, Terpenoid backbone biosynthesis, Biosynthesis of secondary metabolites</t>
+  </si>
+  <si>
+    <t>uppS</t>
+  </si>
+  <si>
+    <t>psd</t>
+  </si>
+  <si>
+    <t>Glycerophospholipid metabolism, 	Biosynthesis of secondary metabolites</t>
+  </si>
+  <si>
+    <t>Phenylalanine, tyrosine and tryptophan biosynthesis, 	Biosynthesis of secondary metabolites, 	Biosynthesis of amino acids</t>
+  </si>
+  <si>
+    <t>pheA2</t>
+  </si>
+  <si>
+    <t>Pantothenate and CoA biosynthesis, Valine, leucine and isoleucine degradation, Cysteine and methionine metabolism, Glucosinolate biosynthesis, 2-Oxocarboxylic acid metabolism, Biosynthesis of amino acids,  Biosynthesis of cofactors</t>
+  </si>
+  <si>
+    <t xml:space="preserve">name </t>
+  </si>
+  <si>
+    <t>ilvE</t>
+  </si>
+  <si>
+    <t>gshA</t>
+  </si>
+  <si>
+    <t>Sulfur metabolism; glutathione biosynthesis; protection from h2o2</t>
+  </si>
+  <si>
+    <t>fur4</t>
+  </si>
+  <si>
+    <t>Lipopolysaccharide synthesis</t>
+  </si>
+  <si>
+    <t>Terpenoid backbone synthesis</t>
+  </si>
+  <si>
+    <t>Menaquinone synthesis</t>
+  </si>
+  <si>
+    <t>Glycerophospholipid synthesis</t>
+  </si>
+  <si>
+    <t>Nucleotide-sugar metabolism</t>
+  </si>
+  <si>
+    <t>Isoprenoid biosynthesis</t>
+  </si>
+  <si>
+    <t>Lipid IV A biosynthesis</t>
+  </si>
+  <si>
+    <t>Chorismate pathway</t>
+  </si>
+  <si>
+    <t>vitamin synthesis</t>
+  </si>
+  <si>
+    <t>panF</t>
+  </si>
+  <si>
+    <t>pantothenate transmembrane transport</t>
+  </si>
+  <si>
+    <t>branched-chain-amino-acid transaminase'</t>
+  </si>
 </sst>
 </file>
 
@@ -11704,7 +12248,7 @@
     <numFmt numFmtId="165" formatCode="0.000"/>
     <numFmt numFmtId="166" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="38">
+  <fonts count="42">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -11961,6 +12505,34 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF4B555B"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF212121"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF0A0A0A"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFE2EEFF"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -12479,7 +13051,7 @@
     <xf numFmtId="0" fontId="1" fillId="40" borderId="19" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="272">
+  <cellXfs count="281">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -12947,25 +13519,36 @@
     <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="42" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="40" borderId="19" xfId="12" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="41" borderId="0" xfId="13"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="3"/>
     <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="3" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="42" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="2" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="3"/>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="2"/>
-    <xf numFmtId="0" fontId="9" fillId="40" borderId="19" xfId="12" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="41" borderId="0" xfId="13"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="14">
     <cellStyle name="20% - Accent2" xfId="9" builtinId="34"/>
@@ -13325,6 +13908,939 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Core pathways for</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> drug targets</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Gene-essentialiaty'!$S$3:$S$13</c:f>
+              <c:strCache>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>Lipopolysaccharide synthesis</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Terpenoid backbone synthesis</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Menaquinone synthesis</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Glycerophospholipid synthesis</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Thiamine metabolism</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Nucleotide-sugar metabolism</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Isoprenoid biosynthesis</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Lipid IV A biosynthesis</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Chorismate pathway</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Biosynthesis of amino acids</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>vitamin synthesis</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Gene-essentialiaty'!$T$3:$T$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-96F5-446D-BDCD-AA6FD6BEEFC9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="182"/>
+        <c:axId val="1903173136"/>
+        <c:axId val="1903175056"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1903173136"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1903175056"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1903175056"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1903173136"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>166687</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>185737</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{265A3DAF-772D-324C-AA3C-5DF1C7A37C03}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -14719,10 +16235,10 @@
         <v>31</v>
       </c>
       <c r="K34" s="8"/>
-      <c r="L34" s="263" t="s">
+      <c r="L34" s="266" t="s">
         <v>32</v>
       </c>
-      <c r="M34" s="263"/>
+      <c r="M34" s="266"/>
       <c r="N34" s="8"/>
       <c r="O34" s="8" t="s">
         <v>10</v>
@@ -18495,10 +20011,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFE2B231-2AC6-486F-967C-CDA506E300F9}">
-  <dimension ref="A1:Q35"/>
+  <dimension ref="A1:Q47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O26" sqref="O26"/>
+      <selection activeCell="O24" sqref="O24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -18508,36 +20024,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="15.75" thickBot="1">
-      <c r="A1" s="267" t="s">
+      <c r="A1" s="268" t="s">
         <v>3088</v>
       </c>
-      <c r="B1" s="267"/>
-      <c r="D1" s="268" t="s">
+      <c r="B1" s="268"/>
+      <c r="D1" s="269" t="s">
         <v>3220</v>
       </c>
-      <c r="E1" s="268"/>
-      <c r="G1" s="269" t="s">
+      <c r="E1" s="269"/>
+      <c r="G1" s="267" t="s">
         <v>3260</v>
       </c>
-      <c r="H1" s="269"/>
-      <c r="J1" s="268" t="s">
+      <c r="H1" s="267"/>
+      <c r="J1" s="269" t="s">
         <v>3277</v>
       </c>
-      <c r="K1" s="268"/>
-      <c r="M1" s="269" t="s">
+      <c r="K1" s="269"/>
+      <c r="M1" s="267" t="s">
         <v>3296</v>
       </c>
-      <c r="N1" s="269"/>
-      <c r="P1" s="269">
+      <c r="N1" s="267"/>
+      <c r="P1" s="267">
         <v>10211</v>
       </c>
-      <c r="Q1" s="269"/>
+      <c r="Q1" s="267"/>
     </row>
     <row r="2" spans="1:17" ht="54.75" customHeight="1" thickBot="1">
       <c r="A2" t="s">
         <v>3169</v>
       </c>
-      <c r="B2" s="266" t="s">
+      <c r="B2" s="263" t="s">
         <v>3170</v>
       </c>
       <c r="D2" t="s">
@@ -18558,7 +20074,7 @@
       <c r="M2" t="s">
         <v>3297</v>
       </c>
-      <c r="N2" s="270" t="s">
+      <c r="N2" s="264" t="s">
         <v>3251</v>
       </c>
       <c r="P2" t="s">
@@ -18578,7 +20094,7 @@
       <c r="D3" t="s">
         <v>3222</v>
       </c>
-      <c r="E3" s="270" t="s">
+      <c r="E3" s="264" t="s">
         <v>3246</v>
       </c>
       <c r="G3" t="s">
@@ -18669,7 +20185,7 @@
       <c r="P5" t="s">
         <v>3323</v>
       </c>
-      <c r="Q5" s="271" t="s">
+      <c r="Q5" s="265" t="s">
         <v>3210</v>
       </c>
     </row>
@@ -18784,7 +20300,7 @@
       <c r="A10" t="s">
         <v>3181</v>
       </c>
-      <c r="B10" s="271" t="s">
+      <c r="B10" s="265" t="s">
         <v>3210</v>
       </c>
       <c r="D10" t="s">
@@ -18874,7 +20390,7 @@
       <c r="D13" t="s">
         <v>3232</v>
       </c>
-      <c r="E13" s="270" t="s">
+      <c r="E13" s="264" t="s">
         <v>3251</v>
       </c>
       <c r="M13" t="s">
@@ -18894,7 +20410,7 @@
       <c r="M14" t="s">
         <v>3309</v>
       </c>
-      <c r="N14" s="270" t="s">
+      <c r="N14" s="264" t="s">
         <v>3316</v>
       </c>
     </row>
@@ -18914,7 +20430,7 @@
       <c r="M15" t="s">
         <v>3310</v>
       </c>
-      <c r="N15" s="270" t="s">
+      <c r="N15" s="264" t="s">
         <v>3316</v>
       </c>
     </row>
@@ -18935,7 +20451,7 @@
         <v>3317</v>
       </c>
     </row>
-    <row r="17" spans="1:14">
+    <row r="17" spans="1:15">
       <c r="A17" t="s">
         <v>3188</v>
       </c>
@@ -18955,7 +20471,7 @@
         <v>3318</v>
       </c>
     </row>
-    <row r="18" spans="1:14">
+    <row r="18" spans="1:15">
       <c r="A18" t="s">
         <v>3189</v>
       </c>
@@ -18975,7 +20491,7 @@
         <v>3318</v>
       </c>
     </row>
-    <row r="19" spans="1:14">
+    <row r="19" spans="1:15">
       <c r="A19" t="s">
         <v>3190</v>
       </c>
@@ -18992,7 +20508,7 @@
         <v>3319</v>
       </c>
     </row>
-    <row r="20" spans="1:14">
+    <row r="20" spans="1:15">
       <c r="A20" t="s">
         <v>3191</v>
       </c>
@@ -19006,7 +20522,7 @@
         <v>3315</v>
       </c>
     </row>
-    <row r="21" spans="1:14">
+    <row r="21" spans="1:15">
       <c r="A21" t="s">
         <v>3192</v>
       </c>
@@ -19020,7 +20536,7 @@
         <v>3251</v>
       </c>
     </row>
-    <row r="22" spans="1:14">
+    <row r="22" spans="1:15">
       <c r="A22" t="s">
         <v>3193</v>
       </c>
@@ -19031,7 +20547,7 @@
         <v>3251</v>
       </c>
     </row>
-    <row r="23" spans="1:14">
+    <row r="23" spans="1:15">
       <c r="A23" t="s">
         <v>3194</v>
       </c>
@@ -19045,7 +20561,7 @@
         <v>3257</v>
       </c>
     </row>
-    <row r="24" spans="1:14">
+    <row r="24" spans="1:15">
       <c r="A24" t="s">
         <v>3195</v>
       </c>
@@ -19056,7 +20572,7 @@
         <v>3258</v>
       </c>
     </row>
-    <row r="25" spans="1:14">
+    <row r="25" spans="1:15">
       <c r="A25" t="s">
         <v>3196</v>
       </c>
@@ -19067,7 +20583,7 @@
         <v>3258</v>
       </c>
     </row>
-    <row r="26" spans="1:14">
+    <row r="26" spans="1:15">
       <c r="A26" t="s">
         <v>3197</v>
       </c>
@@ -19078,71 +20594,998 @@
         <v>3259</v>
       </c>
     </row>
-    <row r="27" spans="1:14">
+    <row r="27" spans="1:15">
       <c r="A27" t="s">
         <v>3198</v>
       </c>
     </row>
-    <row r="28" spans="1:14">
+    <row r="28" spans="1:15">
       <c r="A28" t="s">
         <v>3199</v>
       </c>
     </row>
-    <row r="29" spans="1:14">
+    <row r="29" spans="1:15">
       <c r="A29" t="s">
         <v>3200</v>
       </c>
     </row>
-    <row r="30" spans="1:14">
+    <row r="30" spans="1:15">
       <c r="A30" t="s">
         <v>3201</v>
       </c>
     </row>
-    <row r="31" spans="1:14">
+    <row r="31" spans="1:15">
       <c r="A31" t="s">
         <v>3202</v>
       </c>
-    </row>
-    <row r="32" spans="1:14">
+      <c r="I31" s="264"/>
+      <c r="K31" s="22"/>
+      <c r="M31" s="264"/>
+      <c r="O31" s="22"/>
+    </row>
+    <row r="32" spans="1:15">
       <c r="A32" t="s">
         <v>3203</v>
       </c>
-    </row>
-    <row r="33" spans="1:2">
+      <c r="I32" s="22"/>
+      <c r="K32" s="22"/>
+      <c r="M32" s="264"/>
+      <c r="O32" s="22"/>
+    </row>
+    <row r="33" spans="1:15">
       <c r="A33" t="s">
         <v>3204</v>
       </c>
       <c r="B33" t="s">
         <v>3218</v>
       </c>
-    </row>
-    <row r="34" spans="1:2">
+      <c r="I33" s="22"/>
+      <c r="K33" s="22"/>
+      <c r="M33" s="22"/>
+      <c r="O33" s="22"/>
+    </row>
+    <row r="34" spans="1:15">
       <c r="A34" t="s">
         <v>3205</v>
       </c>
-    </row>
-    <row r="35" spans="1:2">
+      <c r="I34" s="22"/>
+      <c r="K34" s="22"/>
+      <c r="O34" s="265"/>
+    </row>
+    <row r="35" spans="1:15">
       <c r="A35" t="s">
         <v>3206</v>
       </c>
       <c r="B35" s="22" t="s">
         <v>3219</v>
       </c>
+      <c r="I35" s="22"/>
+      <c r="K35" s="22"/>
+      <c r="M35" s="22"/>
+    </row>
+    <row r="36" spans="1:15">
+      <c r="I36" s="22"/>
+      <c r="K36" s="22"/>
+    </row>
+    <row r="37" spans="1:15">
+      <c r="I37" s="22"/>
+      <c r="K37" s="22"/>
+    </row>
+    <row r="38" spans="1:15">
+      <c r="I38" s="264"/>
+    </row>
+    <row r="39" spans="1:15">
+      <c r="I39" s="22"/>
+    </row>
+    <row r="40" spans="1:15">
+      <c r="I40" s="22"/>
+    </row>
+    <row r="41" spans="1:15">
+      <c r="I41" s="22"/>
+    </row>
+    <row r="42" spans="1:15">
+      <c r="I42" s="22"/>
+    </row>
+    <row r="43" spans="1:15">
+      <c r="I43" s="22"/>
+    </row>
+    <row r="44" spans="1:15">
+      <c r="I44" s="22"/>
+    </row>
+    <row r="45" spans="1:15">
+      <c r="I45" s="22"/>
+    </row>
+    <row r="46" spans="1:15">
+      <c r="I46" s="22"/>
+    </row>
+    <row r="47" spans="1:15">
+      <c r="I47" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="P1:Q1"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="G1:H1"/>
     <mergeCell ref="J1:K1"/>
     <mergeCell ref="M1:N1"/>
-    <mergeCell ref="P1:Q1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F37A59A5-12D5-47B8-96FB-D93FE1297C9D}">
+  <dimension ref="A1:Y63"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O19" sqref="O19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="16384" width="9.140625" style="272"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:20">
+      <c r="A1" s="272" t="s">
+        <v>3380</v>
+      </c>
+      <c r="B1" s="272" t="s">
+        <v>3381</v>
+      </c>
+      <c r="C1" s="272" t="s">
+        <v>3383</v>
+      </c>
+      <c r="D1" s="272" t="s">
+        <v>3384</v>
+      </c>
+      <c r="E1" s="272" t="s">
+        <v>3392</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
+      <c r="A2" s="272" t="s">
+        <v>3328</v>
+      </c>
+      <c r="B2" s="272" t="s">
+        <v>3382</v>
+      </c>
+      <c r="C2" s="272" t="s">
+        <v>3385</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
+      <c r="A3" s="272" t="s">
+        <v>3329</v>
+      </c>
+      <c r="B3" s="272" t="s">
+        <v>3386</v>
+      </c>
+      <c r="C3" s="272" t="s">
+        <v>3387</v>
+      </c>
+      <c r="S3" s="272" t="s">
+        <v>3497</v>
+      </c>
+      <c r="T3" s="272">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
+      <c r="A4" s="272" t="s">
+        <v>3330</v>
+      </c>
+      <c r="C4" s="272" t="s">
+        <v>3388</v>
+      </c>
+      <c r="S4" s="272" t="s">
+        <v>3498</v>
+      </c>
+      <c r="T4" s="272">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
+      <c r="A5" s="272" t="s">
+        <v>3331</v>
+      </c>
+      <c r="B5" s="272" t="s">
+        <v>3389</v>
+      </c>
+      <c r="C5" s="273" t="s">
+        <v>3390</v>
+      </c>
+      <c r="D5" s="278" t="s">
+        <v>3391</v>
+      </c>
+      <c r="E5" s="274" t="s">
+        <v>3393</v>
+      </c>
+      <c r="S5" s="272" t="s">
+        <v>3499</v>
+      </c>
+      <c r="T5" s="272">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" s="272" t="s">
+        <v>3332</v>
+      </c>
+      <c r="C6" s="229" t="s">
+        <v>3441</v>
+      </c>
+      <c r="S6" s="272" t="s">
+        <v>3500</v>
+      </c>
+      <c r="T6" s="272">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" s="272" t="s">
+        <v>3333</v>
+      </c>
+      <c r="B7" s="272" t="s">
+        <v>3442</v>
+      </c>
+      <c r="C7" s="229" t="s">
+        <v>3414</v>
+      </c>
+      <c r="S7" s="272" t="s">
+        <v>3406</v>
+      </c>
+      <c r="T7" s="272">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" s="272" t="s">
+        <v>3334</v>
+      </c>
+      <c r="B8" s="272" t="s">
+        <v>3443</v>
+      </c>
+      <c r="C8" s="229" t="s">
+        <v>3414</v>
+      </c>
+      <c r="S8" s="272" t="s">
+        <v>3501</v>
+      </c>
+      <c r="T8" s="272">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" s="272" t="s">
+        <v>3335</v>
+      </c>
+      <c r="B9" s="272" t="s">
+        <v>3444</v>
+      </c>
+      <c r="C9" s="229" t="s">
+        <v>3445</v>
+      </c>
+      <c r="S9" s="272" t="s">
+        <v>3502</v>
+      </c>
+      <c r="T9" s="272">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" s="272" t="s">
+        <v>3336</v>
+      </c>
+      <c r="B10" s="272" t="s">
+        <v>3446</v>
+      </c>
+      <c r="C10" s="273" t="s">
+        <v>3447</v>
+      </c>
+      <c r="S10" s="272" t="s">
+        <v>3503</v>
+      </c>
+      <c r="T10" s="272">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" s="272" t="s">
+        <v>3337</v>
+      </c>
+      <c r="C11" s="279" t="s">
+        <v>3448</v>
+      </c>
+      <c r="S11" s="272" t="s">
+        <v>3504</v>
+      </c>
+      <c r="T11" s="272">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" s="272" t="s">
+        <v>3338</v>
+      </c>
+      <c r="C12" s="279" t="s">
+        <v>3449</v>
+      </c>
+      <c r="S12" s="272" t="s">
+        <v>3293</v>
+      </c>
+      <c r="T12" s="272">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" s="272" t="s">
+        <v>3339</v>
+      </c>
+      <c r="C13" s="279" t="s">
+        <v>3403</v>
+      </c>
+      <c r="S13" s="272" t="s">
+        <v>3505</v>
+      </c>
+      <c r="T13" s="272">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" s="272" t="s">
+        <v>3340</v>
+      </c>
+      <c r="C14" s="279" t="s">
+        <v>3450</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" s="272" t="s">
+        <v>3341</v>
+      </c>
+      <c r="C15" s="279" t="s">
+        <v>3450</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" s="272" t="s">
+        <v>3342</v>
+      </c>
+      <c r="C16" s="279" t="s">
+        <v>3451</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="272" t="s">
+        <v>3343</v>
+      </c>
+      <c r="C17" s="279" t="s">
+        <v>3452</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="272" t="s">
+        <v>3344</v>
+      </c>
+      <c r="C18" s="279" t="s">
+        <v>3402</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="272" t="s">
+        <v>3345</v>
+      </c>
+      <c r="C19" s="229" t="s">
+        <v>3401</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="272" t="s">
+        <v>3346</v>
+      </c>
+      <c r="B20" s="272" t="s">
+        <v>3400</v>
+      </c>
+      <c r="C20" s="229" t="s">
+        <v>3397</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="272" t="s">
+        <v>3347</v>
+      </c>
+      <c r="B21" s="272" t="s">
+        <v>3399</v>
+      </c>
+      <c r="C21" s="229" t="s">
+        <v>3397</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="272" t="s">
+        <v>3348</v>
+      </c>
+      <c r="C22" s="275" t="s">
+        <v>3398</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="272" t="s">
+        <v>3349</v>
+      </c>
+      <c r="C23" s="229" t="s">
+        <v>3397</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="272" t="s">
+        <v>3350</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="272" t="s">
+        <v>3351</v>
+      </c>
+      <c r="B25" s="272" t="s">
+        <v>3440</v>
+      </c>
+      <c r="C25" s="279" t="s">
+        <v>3438</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="272" t="s">
+        <v>3352</v>
+      </c>
+      <c r="B26" s="272" t="s">
+        <v>3439</v>
+      </c>
+      <c r="C26" s="272" t="s">
+        <v>3438</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="272" t="s">
+        <v>3353</v>
+      </c>
+      <c r="C27" s="272" t="s">
+        <v>3437</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="272" t="s">
+        <v>3354</v>
+      </c>
+      <c r="B28" s="272" t="s">
+        <v>3435</v>
+      </c>
+      <c r="C28" s="229" t="s">
+        <v>3436</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="272" t="s">
+        <v>3355</v>
+      </c>
+      <c r="B29" s="272" t="s">
+        <v>3433</v>
+      </c>
+      <c r="C29" s="229" t="s">
+        <v>3434</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="272" t="s">
+        <v>3356</v>
+      </c>
+      <c r="C30" s="272" t="s">
+        <v>3432</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="272" t="s">
+        <v>3357</v>
+      </c>
+      <c r="C31" s="272" t="s">
+        <v>3431</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="272" t="s">
+        <v>3358</v>
+      </c>
+      <c r="C32" s="272" t="s">
+        <v>3430</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" s="272" t="s">
+        <v>3359</v>
+      </c>
+      <c r="B33" s="272" t="s">
+        <v>3429</v>
+      </c>
+      <c r="C33" s="272" t="s">
+        <v>3428</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" s="272" t="s">
+        <v>3360</v>
+      </c>
+      <c r="B34" s="272" t="s">
+        <v>3427</v>
+      </c>
+      <c r="C34" s="272" t="s">
+        <v>3426</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" s="272" t="s">
+        <v>3361</v>
+      </c>
+      <c r="C35" s="272" t="s">
+        <v>3424</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" s="272" t="s">
+        <v>3362</v>
+      </c>
+      <c r="B36" s="272" t="s">
+        <v>3396</v>
+      </c>
+      <c r="C36" s="272" t="s">
+        <v>3425</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" s="272" t="s">
+        <v>3363</v>
+      </c>
+      <c r="B37" s="272" t="s">
+        <v>3394</v>
+      </c>
+      <c r="C37" s="229" t="s">
+        <v>3395</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" s="272" t="s">
+        <v>3364</v>
+      </c>
+      <c r="C38" s="272" t="s">
+        <v>3423</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" s="272" t="s">
+        <v>3365</v>
+      </c>
+      <c r="C39" s="273" t="s">
+        <v>3422</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40" s="272" t="s">
+        <v>3366</v>
+      </c>
+      <c r="B40" s="272" t="s">
+        <v>3420</v>
+      </c>
+      <c r="C40" s="272" t="s">
+        <v>3421</v>
+      </c>
+      <c r="E40" s="274" t="s">
+        <v>3419</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41" s="272" t="s">
+        <v>3367</v>
+      </c>
+      <c r="B41" s="272" t="s">
+        <v>3417</v>
+      </c>
+      <c r="C41" s="229" t="s">
+        <v>3418</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42" s="272" t="s">
+        <v>3368</v>
+      </c>
+      <c r="B42" s="272" t="s">
+        <v>3416</v>
+      </c>
+      <c r="C42" s="279" t="s">
+        <v>3415</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43" s="272" t="s">
+        <v>3369</v>
+      </c>
+      <c r="C43" s="272" t="s">
+        <v>3414</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44" s="272" t="s">
+        <v>3370</v>
+      </c>
+      <c r="C44" s="272" t="s">
+        <v>3413</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="A45" s="272" t="s">
+        <v>3371</v>
+      </c>
+      <c r="C45" s="272" t="s">
+        <v>3412</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="A46" s="272" t="s">
+        <v>3372</v>
+      </c>
+      <c r="B46" s="272" t="s">
+        <v>3411</v>
+      </c>
+      <c r="C46" s="229" t="s">
+        <v>3273</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" ht="24" customHeight="1">
+      <c r="A47" s="272" t="s">
+        <v>3373</v>
+      </c>
+      <c r="C47" s="276" t="s">
+        <v>3410</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="A48" s="272" t="s">
+        <v>3374</v>
+      </c>
+      <c r="C48" s="272" t="s">
+        <v>3409</v>
+      </c>
+      <c r="D48" s="280" t="s">
+        <v>3408</v>
+      </c>
+    </row>
+    <row r="49" spans="1:25">
+      <c r="A49" s="272" t="s">
+        <v>3375</v>
+      </c>
+      <c r="B49" s="272" t="s">
+        <v>3407</v>
+      </c>
+      <c r="C49" s="272" t="s">
+        <v>3395</v>
+      </c>
+    </row>
+    <row r="50" spans="1:25">
+      <c r="A50" s="272" t="s">
+        <v>3376</v>
+      </c>
+      <c r="C50" s="229" t="s">
+        <v>3406</v>
+      </c>
+    </row>
+    <row r="51" spans="1:25">
+      <c r="A51" s="272" t="s">
+        <v>3377</v>
+      </c>
+      <c r="C51" s="273" t="s">
+        <v>3405</v>
+      </c>
+    </row>
+    <row r="52" spans="1:25">
+      <c r="A52" s="272" t="s">
+        <v>3378</v>
+      </c>
+      <c r="C52" s="280" t="s">
+        <v>3404</v>
+      </c>
+    </row>
+    <row r="53" spans="1:25">
+      <c r="A53" s="272" t="s">
+        <v>3379</v>
+      </c>
+      <c r="C53" s="279" t="s">
+        <v>3403</v>
+      </c>
+    </row>
+    <row r="56" spans="1:25">
+      <c r="A56" s="272" t="s">
+        <v>3453</v>
+      </c>
+    </row>
+    <row r="57" spans="1:25">
+      <c r="A57" s="272" t="s">
+        <v>3088</v>
+      </c>
+      <c r="B57" s="272" t="s">
+        <v>3381</v>
+      </c>
+      <c r="C57" s="272" t="s">
+        <v>3383</v>
+      </c>
+      <c r="F57" s="272" t="s">
+        <v>3121</v>
+      </c>
+      <c r="G57" s="272" t="s">
+        <v>3381</v>
+      </c>
+      <c r="H57" s="272" t="s">
+        <v>3383</v>
+      </c>
+      <c r="K57" s="272" t="s">
+        <v>3125</v>
+      </c>
+      <c r="O57" s="272">
+        <v>477</v>
+      </c>
+      <c r="P57" s="272" t="s">
+        <v>3492</v>
+      </c>
+      <c r="Q57" s="272" t="s">
+        <v>3383</v>
+      </c>
+      <c r="W57" s="272">
+        <v>10211</v>
+      </c>
+    </row>
+    <row r="58" spans="1:25">
+      <c r="A58" s="272" t="s">
+        <v>3454</v>
+      </c>
+      <c r="B58" s="272" t="s">
+        <v>3473</v>
+      </c>
+      <c r="C58" s="279" t="s">
+        <v>3472</v>
+      </c>
+      <c r="D58" s="272" t="str">
+        <f>""</f>
+        <v/>
+      </c>
+      <c r="F58" s="272" t="s">
+        <v>3460</v>
+      </c>
+      <c r="G58" s="272" t="s">
+        <v>3484</v>
+      </c>
+      <c r="H58" s="229" t="s">
+        <v>3395</v>
+      </c>
+      <c r="I58" s="272" t="str">
+        <f>""</f>
+        <v/>
+      </c>
+      <c r="K58" s="272" t="s">
+        <v>3465</v>
+      </c>
+      <c r="L58" s="272" t="str">
+        <f>""</f>
+        <v/>
+      </c>
+      <c r="O58" s="272" t="s">
+        <v>3467</v>
+      </c>
+      <c r="Q58" s="229" t="s">
+        <v>3491</v>
+      </c>
+      <c r="V58" s="272" t="str">
+        <f>""</f>
+        <v/>
+      </c>
+      <c r="W58" s="272" t="s">
+        <v>3470</v>
+      </c>
+    </row>
+    <row r="59" spans="1:25">
+      <c r="A59" s="272" t="s">
+        <v>3455</v>
+      </c>
+      <c r="B59" s="272" t="s">
+        <v>3474</v>
+      </c>
+      <c r="C59" s="279" t="s">
+        <v>3475</v>
+      </c>
+      <c r="D59" s="272" t="str">
+        <f>""</f>
+        <v/>
+      </c>
+      <c r="F59" s="272" t="s">
+        <v>3461</v>
+      </c>
+      <c r="G59" s="272" t="s">
+        <v>3486</v>
+      </c>
+      <c r="H59" s="229" t="s">
+        <v>3485</v>
+      </c>
+      <c r="I59" s="272" t="str">
+        <f>""</f>
+        <v/>
+      </c>
+      <c r="K59" s="277" t="s">
+        <v>3508</v>
+      </c>
+      <c r="L59" s="272" t="s">
+        <v>3493</v>
+      </c>
+      <c r="M59" s="229" t="s">
+        <v>3491</v>
+      </c>
+      <c r="N59" s="272" t="str">
+        <f>""</f>
+        <v/>
+      </c>
+      <c r="O59" s="272" t="s">
+        <v>3468</v>
+      </c>
+      <c r="W59" s="272" t="s">
+        <v>3471</v>
+      </c>
+      <c r="X59" s="272" t="s">
+        <v>3494</v>
+      </c>
+      <c r="Y59" s="279" t="s">
+        <v>3495</v>
+      </c>
+    </row>
+    <row r="60" spans="1:25">
+      <c r="A60" s="272" t="s">
+        <v>3456</v>
+      </c>
+      <c r="B60" s="272" t="s">
+        <v>3480</v>
+      </c>
+      <c r="C60" s="229" t="s">
+        <v>3476</v>
+      </c>
+      <c r="D60" s="272" t="str">
+        <f>""</f>
+        <v/>
+      </c>
+      <c r="F60" s="272" t="s">
+        <v>3462</v>
+      </c>
+      <c r="G60" s="272" t="s">
+        <v>3487</v>
+      </c>
+      <c r="H60" s="229" t="s">
+        <v>3488</v>
+      </c>
+      <c r="I60" s="272" t="str">
+        <f>""</f>
+        <v/>
+      </c>
+      <c r="K60" s="272" t="s">
+        <v>3466</v>
+      </c>
+      <c r="L60" s="272" t="str">
+        <f>""</f>
+        <v/>
+      </c>
+      <c r="O60" s="272" t="s">
+        <v>3469</v>
+      </c>
+      <c r="P60" s="272" t="s">
+        <v>3490</v>
+      </c>
+      <c r="Q60" s="229" t="s">
+        <v>3489</v>
+      </c>
+      <c r="V60" s="272" t="str">
+        <f>""</f>
+        <v/>
+      </c>
+    </row>
+    <row r="61" spans="1:25">
+      <c r="A61" s="272" t="s">
+        <v>3457</v>
+      </c>
+      <c r="B61" s="272" t="s">
+        <v>3481</v>
+      </c>
+      <c r="C61" s="229" t="s">
+        <v>3477</v>
+      </c>
+      <c r="D61" s="272" t="str">
+        <f>""</f>
+        <v/>
+      </c>
+      <c r="F61" s="272" t="s">
+        <v>3463</v>
+      </c>
+      <c r="G61" s="272" t="s">
+        <v>3506</v>
+      </c>
+      <c r="H61" s="274" t="s">
+        <v>3507</v>
+      </c>
+      <c r="I61" s="272" t="str">
+        <f>""</f>
+        <v/>
+      </c>
+      <c r="L61" s="272" t="str">
+        <f>""</f>
+        <v/>
+      </c>
+    </row>
+    <row r="62" spans="1:25">
+      <c r="A62" s="272" t="s">
+        <v>3458</v>
+      </c>
+      <c r="B62" s="272" t="s">
+        <v>3479</v>
+      </c>
+      <c r="C62" s="229" t="s">
+        <v>3478</v>
+      </c>
+      <c r="D62" s="272" t="str">
+        <f>""</f>
+        <v/>
+      </c>
+      <c r="F62" s="272" t="s">
+        <v>3464</v>
+      </c>
+      <c r="G62" s="272" t="s">
+        <v>3496</v>
+      </c>
+      <c r="I62" s="272" t="str">
+        <f>""</f>
+        <v/>
+      </c>
+      <c r="L62" s="272" t="str">
+        <f>""</f>
+        <v/>
+      </c>
+    </row>
+    <row r="63" spans="1:25">
+      <c r="A63" s="272" t="s">
+        <v>3459</v>
+      </c>
+      <c r="B63" s="272" t="s">
+        <v>3483</v>
+      </c>
+      <c r="C63" s="229" t="s">
+        <v>3482</v>
+      </c>
+      <c r="D63" s="272" t="str">
+        <f>""</f>
+        <v/>
+      </c>
+      <c r="I63" s="272" t="str">
+        <f>""</f>
+        <v/>
+      </c>
+      <c r="L63" s="272" t="str">
+        <f>""</f>
+        <v/>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E5" r:id="rId1" xr:uid="{F4698739-0004-4EBB-9A02-CDF860F02A3D}"/>
+    <hyperlink ref="E40" r:id="rId2" xr:uid="{E6885959-A944-489A-A94F-C415184ABC37}"/>
+    <hyperlink ref="H61" r:id="rId3" display="https://www.ebi.ac.uk/QuickGO/GTerm?id=GO:0015887" xr:uid="{E9DD2E7F-3817-4B9E-9222-79DFA5E175EE}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId4"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE28C815-10ED-4864-9072-80DFFC01FE84}">
   <dimension ref="A1:AF137"/>
   <sheetViews>
@@ -27008,7 +29451,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84A10506-03E2-4E3C-BF66-D6D9B3461A39}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -27020,7 +29463,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB35D145-2A68-481F-8E1A-EF44E882995E}">
   <dimension ref="A2:BV96"/>
   <sheetViews>
@@ -27049,14 +29492,14 @@
       </c>
     </row>
     <row r="4" spans="1:74">
-      <c r="B4" s="264" t="s">
+      <c r="B4" s="270" t="s">
         <v>578</v>
       </c>
-      <c r="C4" s="264"/>
-      <c r="F4" s="264" t="s">
+      <c r="C4" s="270"/>
+      <c r="F4" s="270" t="s">
         <v>579</v>
       </c>
-      <c r="G4" s="264"/>
+      <c r="G4" s="270"/>
       <c r="K4" s="227" t="s">
         <v>587</v>
       </c>
@@ -29282,7 +31725,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EEC77E3-3450-42D8-A258-B8639D462FCE}">
   <dimension ref="A1:H721"/>
   <sheetViews>
@@ -29323,7 +31766,7 @@
       <c r="D2" s="237"/>
     </row>
     <row r="3" spans="1:8" ht="15.75">
-      <c r="A3" s="265" t="s">
+      <c r="A3" s="271" t="s">
         <v>747</v>
       </c>
       <c r="B3" s="237"/>
@@ -29335,7 +31778,7 @@
       </c>
     </row>
     <row r="4" spans="1:8" ht="40.5" customHeight="1">
-      <c r="A4" s="265"/>
+      <c r="A4" s="271"/>
       <c r="B4" s="241"/>
       <c r="C4" s="22" t="s">
         <v>3148</v>
@@ -29731,7 +32174,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B296B488-E80D-4168-9DF7-854B887D25E4}">
   <dimension ref="A2:M145"/>
   <sheetViews>
@@ -31164,7 +33607,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C00EEEC-BE57-4C32-AB4C-D4A87DE342DF}">
   <dimension ref="A1:B13"/>
   <sheetViews>
@@ -31251,7 +33694,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BEEFAB0-C0F5-41CD-BD8A-0256C21A3DA2}">
   <dimension ref="A1:S1628"/>
   <sheetViews>
@@ -42938,10 +45381,10 @@
         <v>31</v>
       </c>
       <c r="K8" s="8"/>
-      <c r="L8" s="263" t="s">
+      <c r="L8" s="266" t="s">
         <v>32</v>
       </c>
-      <c r="M8" s="263"/>
+      <c r="M8" s="266"/>
       <c r="N8" s="8"/>
       <c r="O8" s="8" t="s">
         <v>10</v>
